--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/F7-F3.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/F7-F3.xlsx
@@ -537,46 +537,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.348664666666667</v>
+        <v>1.428213333333333</v>
       </c>
       <c r="H2">
-        <v>4.045994</v>
+        <v>4.28464</v>
       </c>
       <c r="I2">
-        <v>0.5352212056913968</v>
+        <v>0.3767260624985217</v>
       </c>
       <c r="J2">
-        <v>0.5352212056913968</v>
+        <v>0.3767260624985217</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>1.371899666666667</v>
+        <v>0.4445023333333333</v>
       </c>
       <c r="N2">
-        <v>4.115699</v>
+        <v>1.333507</v>
       </c>
       <c r="O2">
-        <v>0.03023679715004545</v>
+        <v>0.009977046255258984</v>
       </c>
       <c r="P2">
-        <v>0.03023679715004545</v>
+        <v>0.009977046255258982</v>
       </c>
       <c r="Q2">
-        <v>1.850232606645111</v>
+        <v>0.6348441591644444</v>
       </c>
       <c r="R2">
-        <v>16.652093459806</v>
+        <v>5.713597432479999</v>
       </c>
       <c r="S2">
-        <v>0.01618337502689352</v>
+        <v>0.003758613351109338</v>
       </c>
       <c r="T2">
-        <v>0.01618337502689352</v>
+        <v>0.003758613351109337</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.348664666666667</v>
+        <v>1.428213333333333</v>
       </c>
       <c r="H3">
-        <v>4.045994</v>
+        <v>4.28464</v>
       </c>
       <c r="I3">
-        <v>0.5352212056913968</v>
+        <v>0.3767260624985217</v>
       </c>
       <c r="J3">
-        <v>0.5352212056913968</v>
+        <v>0.3767260624985217</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>127.904251</v>
       </c>
       <c r="O3">
-        <v>0.9396738906600065</v>
+        <v>0.9569553279219795</v>
       </c>
       <c r="P3">
-        <v>0.9396738906600065</v>
+        <v>0.9569553279219793</v>
       </c>
       <c r="Q3">
-        <v>57.49998134672157</v>
+        <v>60.89151888940444</v>
       </c>
       <c r="R3">
-        <v>517.499832120494</v>
+        <v>548.0236700046399</v>
       </c>
       <c r="S3">
-        <v>0.5029333927157744</v>
+        <v>0.360510012675029</v>
       </c>
       <c r="T3">
-        <v>0.5029333927157744</v>
+        <v>0.3605100126750289</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.348664666666667</v>
+        <v>1.428213333333333</v>
       </c>
       <c r="H4">
-        <v>4.045994</v>
+        <v>4.28464</v>
       </c>
       <c r="I4">
-        <v>0.5352212056913968</v>
+        <v>0.3767260624985217</v>
       </c>
       <c r="J4">
-        <v>0.5352212056913968</v>
+        <v>0.3767260624985217</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.179485666666667</v>
+        <v>0.851471</v>
       </c>
       <c r="N4">
-        <v>3.538457</v>
+        <v>2.554413</v>
       </c>
       <c r="O4">
-        <v>0.02599597456790654</v>
+        <v>0.01911163320180161</v>
       </c>
       <c r="P4">
-        <v>0.02599597456790654</v>
+        <v>0.01911163320180161</v>
       </c>
       <c r="Q4">
-        <v>1.590730643473111</v>
+        <v>1.216082235146666</v>
       </c>
       <c r="R4">
-        <v>14.316575791258</v>
+        <v>10.94474011632</v>
       </c>
       <c r="S4">
-        <v>0.01391359685135782</v>
+        <v>0.007199850324030737</v>
       </c>
       <c r="T4">
-        <v>0.01391359685135782</v>
+        <v>0.007199850324030735</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.348664666666667</v>
+        <v>1.428213333333333</v>
       </c>
       <c r="H5">
-        <v>4.045994</v>
+        <v>4.28464</v>
       </c>
       <c r="I5">
-        <v>0.5352212056913968</v>
+        <v>0.3767260624985217</v>
       </c>
       <c r="J5">
-        <v>0.5352212056913968</v>
+        <v>0.3767260624985217</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -741,28 +741,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.1857223333333334</v>
+        <v>0.6217743333333333</v>
       </c>
       <c r="N5">
-        <v>0.5571670000000001</v>
+        <v>1.865323</v>
       </c>
       <c r="O5">
-        <v>0.004093337622041693</v>
+        <v>0.01395599262095996</v>
       </c>
       <c r="P5">
-        <v>0.004093337622041693</v>
+        <v>0.01395599262095996</v>
       </c>
       <c r="Q5">
-        <v>0.2504771487775556</v>
+        <v>0.888026393191111</v>
       </c>
       <c r="R5">
-        <v>2.254294338998001</v>
+        <v>7.99223753872</v>
       </c>
       <c r="S5">
-        <v>0.00219084109737111</v>
+        <v>0.005257586148352669</v>
       </c>
       <c r="T5">
-        <v>0.00219084109737111</v>
+        <v>0.005257586148352669</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,40 +791,40 @@
         <v>0.186553</v>
       </c>
       <c r="I6">
-        <v>0.02467802018128231</v>
+        <v>0.01640263292535353</v>
       </c>
       <c r="J6">
-        <v>0.02467802018128231</v>
+        <v>0.01640263292535352</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>1.371899666666667</v>
+        <v>0.4445023333333333</v>
       </c>
       <c r="N6">
-        <v>4.115699</v>
+        <v>1.333507</v>
       </c>
       <c r="O6">
-        <v>0.03023679715004545</v>
+        <v>0.009977046255258984</v>
       </c>
       <c r="P6">
-        <v>0.03023679715004545</v>
+        <v>0.009977046255258982</v>
       </c>
       <c r="Q6">
-        <v>0.0853106661718889</v>
+        <v>0.02764108126344444</v>
       </c>
       <c r="R6">
-        <v>0.7677959955470001</v>
+        <v>0.248769731371</v>
       </c>
       <c r="S6">
-        <v>0.0007461842902861611</v>
+        <v>0.0001636498274042861</v>
       </c>
       <c r="T6">
-        <v>0.000746184290286161</v>
+        <v>0.000163649827404286</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>0.186553</v>
       </c>
       <c r="I7">
-        <v>0.02467802018128231</v>
+        <v>0.01640263292535353</v>
       </c>
       <c r="J7">
-        <v>0.02467802018128231</v>
+        <v>0.01640263292535352</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>127.904251</v>
       </c>
       <c r="O7">
-        <v>0.9396738906600065</v>
+        <v>0.9569553279219795</v>
       </c>
       <c r="P7">
-        <v>0.9396738906600065</v>
+        <v>0.9569553279219793</v>
       </c>
       <c r="Q7">
         <v>2.651213526311444</v>
@@ -883,10 +883,10 @@
         <v>23.860921736803</v>
       </c>
       <c r="S7">
-        <v>0.02318929123753171</v>
+        <v>0.01569658696986554</v>
       </c>
       <c r="T7">
-        <v>0.0231892912375317</v>
+        <v>0.01569658696986554</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>0.186553</v>
       </c>
       <c r="I8">
-        <v>0.02467802018128231</v>
+        <v>0.01640263292535353</v>
       </c>
       <c r="J8">
-        <v>0.02467802018128231</v>
+        <v>0.01640263292535352</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.179485666666667</v>
+        <v>0.851471</v>
       </c>
       <c r="N8">
-        <v>3.538457</v>
+        <v>2.554413</v>
       </c>
       <c r="O8">
-        <v>0.02599597456790654</v>
+        <v>0.01911163320180161</v>
       </c>
       <c r="P8">
-        <v>0.02599597456790654</v>
+        <v>0.01911163320180161</v>
       </c>
       <c r="Q8">
-        <v>0.07334552985788889</v>
+        <v>0.05294815648766667</v>
       </c>
       <c r="R8">
-        <v>0.660109768721</v>
+        <v>0.4765334083889999</v>
       </c>
       <c r="S8">
-        <v>0.0006415291850188991</v>
+        <v>0.0003134811040131508</v>
       </c>
       <c r="T8">
-        <v>0.0006415291850188991</v>
+        <v>0.0003134811040131506</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>0.186553</v>
       </c>
       <c r="I9">
-        <v>0.02467802018128231</v>
+        <v>0.01640263292535353</v>
       </c>
       <c r="J9">
-        <v>0.02467802018128231</v>
+        <v>0.01640263292535352</v>
       </c>
       <c r="K9">
         <v>2</v>
@@ -989,28 +989,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>0.1857223333333334</v>
+        <v>0.6217743333333333</v>
       </c>
       <c r="N9">
-        <v>0.5571670000000001</v>
+        <v>1.865323</v>
       </c>
       <c r="O9">
-        <v>0.004093337622041693</v>
+        <v>0.01395599262095996</v>
       </c>
       <c r="P9">
-        <v>0.004093337622041693</v>
+        <v>0.01395599262095996</v>
       </c>
       <c r="Q9">
-        <v>0.01154901948344445</v>
+        <v>0.03866462240211111</v>
       </c>
       <c r="R9">
-        <v>0.103941175351</v>
+        <v>0.347981601619</v>
       </c>
       <c r="S9">
-        <v>0.000101015468445547</v>
+        <v>0.0002289150240705487</v>
       </c>
       <c r="T9">
-        <v>0.000101015468445547</v>
+        <v>0.0002289150240705486</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,46 +1033,46 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.108977666666667</v>
+        <v>2.300721333333334</v>
       </c>
       <c r="H10">
-        <v>3.326933</v>
+        <v>6.902164000000001</v>
       </c>
       <c r="I10">
-        <v>0.4401007741273209</v>
+        <v>0.6068713045761248</v>
       </c>
       <c r="J10">
-        <v>0.4401007741273209</v>
+        <v>0.6068713045761248</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>1.371899666666667</v>
+        <v>0.4445023333333333</v>
       </c>
       <c r="N10">
-        <v>4.115699</v>
+        <v>1.333507</v>
       </c>
       <c r="O10">
-        <v>0.03023679715004545</v>
+        <v>0.009977046255258984</v>
       </c>
       <c r="P10">
-        <v>0.03023679715004545</v>
+        <v>0.009977046255258982</v>
       </c>
       <c r="Q10">
-        <v>1.521406091240778</v>
+        <v>1.022676001016445</v>
       </c>
       <c r="R10">
-        <v>13.692654821167</v>
+        <v>9.204084009148001</v>
       </c>
       <c r="S10">
-        <v>0.01330723783286577</v>
+        <v>0.00605478307674536</v>
       </c>
       <c r="T10">
-        <v>0.01330723783286577</v>
+        <v>0.006054783076745359</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1.108977666666667</v>
+        <v>2.300721333333334</v>
       </c>
       <c r="H11">
-        <v>3.326933</v>
+        <v>6.902164000000001</v>
       </c>
       <c r="I11">
-        <v>0.4401007741273209</v>
+        <v>0.6068713045761248</v>
       </c>
       <c r="J11">
-        <v>0.4401007741273209</v>
+        <v>0.6068713045761248</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>127.904251</v>
       </c>
       <c r="O11">
-        <v>0.9396738906600065</v>
+        <v>0.9569553279219795</v>
       </c>
       <c r="P11">
-        <v>0.9396738906600065</v>
+        <v>0.9569553279219793</v>
       </c>
       <c r="Q11">
-        <v>47.28098594357589</v>
+        <v>98.09067963324047</v>
       </c>
       <c r="R11">
-        <v>425.528873492183</v>
+        <v>882.8161166991641</v>
       </c>
       <c r="S11">
-        <v>0.4135512067067004</v>
+        <v>0.580748728277085</v>
       </c>
       <c r="T11">
-        <v>0.4135512067067004</v>
+        <v>0.5807487282770849</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.108977666666667</v>
+        <v>2.300721333333334</v>
       </c>
       <c r="H12">
-        <v>3.326933</v>
+        <v>6.902164000000001</v>
       </c>
       <c r="I12">
-        <v>0.4401007741273209</v>
+        <v>0.6068713045761248</v>
       </c>
       <c r="J12">
-        <v>0.4401007741273209</v>
+        <v>0.6068713045761248</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.179485666666667</v>
+        <v>0.851471</v>
       </c>
       <c r="N12">
-        <v>3.538457</v>
+        <v>2.554413</v>
       </c>
       <c r="O12">
-        <v>0.02599597456790654</v>
+        <v>0.01911163320180161</v>
       </c>
       <c r="P12">
-        <v>0.02599597456790654</v>
+        <v>0.01911163320180161</v>
       </c>
       <c r="Q12">
-        <v>1.308023262486778</v>
+        <v>1.958997494414667</v>
       </c>
       <c r="R12">
-        <v>11.772209362381</v>
+        <v>17.630977449732</v>
       </c>
       <c r="S12">
-        <v>0.01144084853152981</v>
+        <v>0.01159830177375773</v>
       </c>
       <c r="T12">
-        <v>0.01144084853152981</v>
+        <v>0.01159830177375772</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1.108977666666667</v>
+        <v>2.300721333333334</v>
       </c>
       <c r="H13">
-        <v>3.326933</v>
+        <v>6.902164000000001</v>
       </c>
       <c r="I13">
-        <v>0.4401007741273209</v>
+        <v>0.6068713045761248</v>
       </c>
       <c r="J13">
-        <v>0.4401007741273209</v>
+        <v>0.6068713045761248</v>
       </c>
       <c r="K13">
         <v>2</v>
@@ -1237,28 +1237,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M13">
-        <v>0.1857223333333334</v>
+        <v>0.6217743333333333</v>
       </c>
       <c r="N13">
-        <v>0.5571670000000001</v>
+        <v>1.865323</v>
       </c>
       <c r="O13">
-        <v>0.004093337622041693</v>
+        <v>0.01395599262095996</v>
       </c>
       <c r="P13">
-        <v>0.004093337622041693</v>
+        <v>0.01395599262095996</v>
       </c>
       <c r="Q13">
-        <v>0.2059619198678889</v>
+        <v>1.430529473219111</v>
       </c>
       <c r="R13">
-        <v>1.853657278811</v>
+        <v>12.874765258972</v>
       </c>
       <c r="S13">
-        <v>0.001801481056225036</v>
+        <v>0.008469491448536742</v>
       </c>
       <c r="T13">
-        <v>0.001801481056225036</v>
+        <v>0.008469491448536742</v>
       </c>
     </row>
   </sheetData>
